--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sammakorn\sammakorn_project_lifestyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D14442F-54DC-4279-BCE6-33CC3F659241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163D08B7-CB86-4ABC-938C-29B35E3CBA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22EDCF0B-C4D6-48EE-B7C5-3BF58B784309}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
   <si>
     <t>Email</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>[visitor_id, whitelist_id]</t>
+  </si>
+  <si>
+    <t>reason_resident</t>
+  </si>
+  <si>
+    <t>reason_admin</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>admin_approve</t>
   </si>
 </sst>
 </file>
@@ -436,7 +448,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -454,22 +476,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43346F73-D141-4A64-9006-ED34E6923F86}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J7" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -815,77 +827,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="I1" s="25" t="s">
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="I1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="M1" s="25" t="s">
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="M1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="Q1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="U1" s="25" t="s">
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="U1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="25"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="25"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="25"/>
+      <c r="N2" s="26"/>
       <c r="O2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="R2" s="25"/>
+      <c r="R2" s="26"/>
       <c r="S2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="25"/>
+      <c r="V2" s="26"/>
       <c r="W2" s="11" t="s">
         <v>18</v>
       </c>
@@ -947,21 +959,21 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="25"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1000,28 +1012,28 @@
       <c r="Y4" s="2"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="26"/>
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="25"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="28"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="21" t="s">
         <v>34</v>
       </c>
@@ -1029,14 +1041,14 @@
         <v>21</v>
       </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="28"/>
+      <c r="Q5" s="32"/>
       <c r="R5" s="21" t="s">
         <v>34</v>
       </c>
       <c r="S5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="28"/>
+      <c r="U5" s="32"/>
       <c r="V5" s="21" t="s">
         <v>34</v>
       </c>
@@ -1047,28 +1059,28 @@
       <c r="Y5" s="2"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="29"/>
+      <c r="M6" s="33"/>
       <c r="N6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1076,14 +1088,14 @@
         <v>21</v>
       </c>
       <c r="P6" s="2"/>
-      <c r="Q6" s="29"/>
+      <c r="Q6" s="33"/>
       <c r="R6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="29"/>
+      <c r="U6" s="33"/>
       <c r="V6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1094,28 +1106,28 @@
       <c r="Y6" s="2"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="26"/>
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="25"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="29"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1123,14 +1135,14 @@
         <v>21</v>
       </c>
       <c r="P7" s="2"/>
-      <c r="Q7" s="29"/>
+      <c r="Q7" s="33"/>
       <c r="R7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="29"/>
+      <c r="U7" s="33"/>
       <c r="V7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1141,28 +1153,28 @@
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="35"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="26"/>
       <c r="F8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="25"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="29"/>
+      <c r="M8" s="33"/>
       <c r="N8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1170,14 +1182,14 @@
         <v>21</v>
       </c>
       <c r="P8" s="2"/>
-      <c r="Q8" s="29"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U8" s="29"/>
+      <c r="U8" s="33"/>
       <c r="V8" s="24" t="s">
         <v>7</v>
       </c>
@@ -1188,28 +1200,28 @@
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="15" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="30"/>
+      <c r="M9" s="34"/>
       <c r="N9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1217,14 +1229,14 @@
         <v>23</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="30"/>
+      <c r="Q9" s="34"/>
       <c r="R9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U9" s="29"/>
+      <c r="U9" s="33"/>
       <c r="V9" s="11" t="s">
         <v>39</v>
       </c>
@@ -1235,21 +1247,21 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1260,7 +1272,7 @@
       <c r="N10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="U10" s="29"/>
+      <c r="U10" s="33"/>
       <c r="V10" s="24" t="s">
         <v>25</v>
       </c>
@@ -1271,7 +1283,7 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +1312,7 @@
       <c r="S11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="U11" s="30"/>
+      <c r="U11" s="34"/>
       <c r="V11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1332,16 +1344,16 @@
       <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="E13" s="25" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="E13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="T13" s="7"/>
@@ -1356,19 +1368,25 @@
       <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="26"/>
       <c r="G14" s="11" t="s">
         <v>18</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="T14" s="7"/>
       <c r="V14" s="6" t="s">
@@ -1400,12 +1418,17 @@
         <v>22</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="Q15" s="31" t="s">
+      <c r="N15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q15" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="29"/>
       <c r="T15" s="7"/>
       <c r="U15" s="3"/>
       <c r="V15" s="23"/>
@@ -1421,11 +1444,16 @@
         <v>20</v>
       </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="Q16" s="31" t="s">
+      <c r="N16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="33"/>
+      <c r="R16" s="29"/>
       <c r="S16" s="11" t="s">
         <v>18</v>
       </c>
@@ -1442,7 +1470,12 @@
         <v>23</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>59</v>
+      </c>
       <c r="Q17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1457,11 +1490,11 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="E18" s="31" t="s">
+      <c r="E18" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="Q18" s="22"/>
@@ -1498,12 +1531,12 @@
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="E20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="29"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
@@ -1523,14 +1556,14 @@
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="33"/>
+      <c r="B21" s="29"/>
       <c r="C21" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="29"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="11" t="s">
         <v>38</v>
       </c>
@@ -1557,7 +1590,7 @@
       <c r="C22" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="4" t="s">
         <v>6</v>
       </c>
@@ -1576,14 +1609,14 @@
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="30"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1633,7 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
@@ -1641,7 +1674,7 @@
       <c r="R27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="S27" s="36" t="s">
+      <c r="S27" s="25" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1652,7 +1685,7 @@
       <c r="R28" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="S28" s="36" t="s">
+      <c r="S28" s="25" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1662,12 +1695,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="A23:A24"/>
@@ -1684,13 +1718,12 @@
     <mergeCell ref="E4:E10"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sammakorn\sammakorn_project_lifestyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{163D08B7-CB86-4ABC-938C-29B35E3CBA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524EEAB-A614-4812-B117-8FA99AC1BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22EDCF0B-C4D6-48EE-B7C5-3BF58B784309}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
   <si>
     <t>Email</t>
   </si>
@@ -81,9 +81,6 @@
     <t>datetime_out</t>
   </si>
   <si>
-    <t>admin_stamp</t>
-  </si>
-  <si>
     <t>blacklist_token</t>
   </si>
   <si>
@@ -198,25 +195,46 @@
     <t>resident_send_admin</t>
   </si>
   <si>
-    <t>reason</t>
-  </si>
-  <si>
     <t>[visitor, whitelist]</t>
   </si>
   <si>
     <t>[visitor_id, whitelist_id]</t>
   </si>
   <si>
-    <t>reason_resident</t>
-  </si>
-  <si>
-    <t>reason_admin</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
     <t>admin_approve</t>
+  </si>
+  <si>
+    <t>device_token</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>is_login</t>
+  </si>
+  <si>
+    <t>resident_reason</t>
+  </si>
+  <si>
+    <t>admin_reason</t>
+  </si>
+  <si>
+    <t>admin_datetime</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>resident_add_reason</t>
+  </si>
+  <si>
+    <t>resident_remove_reason</t>
+  </si>
+  <si>
+    <t>resident_remove_datetime</t>
   </si>
 </sst>
 </file>
@@ -418,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -449,9 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -467,6 +482,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,6 +498,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -796,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43346F73-D141-4A64-9006-ED34E6923F86}">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -827,79 +854,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="E1" s="26" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="E1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="I1" s="26" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="I1" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="M1" s="26" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="M1" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="Q1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="U1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="U1" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
     </row>
     <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="26"/>
+      <c r="A2" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="31"/>
       <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="26"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="26"/>
+      <c r="N2" s="31"/>
       <c r="O2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="26"/>
+      <c r="R2" s="31"/>
       <c r="S2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="V2" s="26"/>
+      <c r="V2" s="31"/>
       <c r="W2" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -907,55 +934,55 @@
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="V3" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -964,49 +991,49 @@
         <v>2</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E4" s="31"/>
       <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I4" s="31"/>
       <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>45</v>
-      </c>
       <c r="V4" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W4" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -1017,43 +1044,43 @@
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="31"/>
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I5" s="31"/>
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="32"/>
       <c r="N5" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="32"/>
       <c r="R5" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U5" s="32"/>
       <c r="V5" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
@@ -1064,28 +1091,28 @@
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E6" s="31"/>
       <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I6" s="31"/>
       <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M6" s="33"/>
       <c r="N6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="33"/>
@@ -1093,14 +1120,14 @@
         <v>2</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U6" s="33"/>
       <c r="V6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -1111,28 +1138,28 @@
         <v>1</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="31"/>
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="26"/>
+        <v>21</v>
+      </c>
+      <c r="I7" s="31"/>
       <c r="J7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" s="33"/>
       <c r="N7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="33"/>
@@ -1140,14 +1167,14 @@
         <v>3</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U7" s="33"/>
       <c r="V7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="W7" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -1158,28 +1185,28 @@
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="31"/>
       <c r="F8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I8" s="31"/>
       <c r="J8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M8" s="33"/>
       <c r="N8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="33"/>
@@ -1187,14 +1214,14 @@
         <v>7</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U8" s="33"/>
       <c r="V8" s="24" t="s">
         <v>7</v>
       </c>
       <c r="W8" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -1202,31 +1229,31 @@
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E9" s="31"/>
       <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="I9" s="31"/>
       <c r="J9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="34"/>
       <c r="N9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="34"/>
@@ -1234,14 +1261,14 @@
         <v>10</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U9" s="33"/>
       <c r="V9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W9" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -1252,21 +1279,21 @@
         <v>11</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="E10" s="31"/>
       <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="26"/>
+        <v>22</v>
+      </c>
+      <c r="I10" s="31"/>
       <c r="J10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1274,10 +1301,10 @@
       <c r="R10" s="3"/>
       <c r="U10" s="33"/>
       <c r="V10" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="W10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -1288,7 +1315,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2"/>
@@ -1298,26 +1325,26 @@
       <c r="K11" s="7"/>
       <c r="M11" s="3"/>
       <c r="N11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U11" s="34"/>
       <c r="V11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -1326,16 +1353,16 @@
       <c r="B12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="6" t="s">
-        <v>51</v>
-      </c>
       <c r="S12" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T12" s="7"/>
       <c r="U12" s="3"/>
@@ -1344,380 +1371,423 @@
       <c r="Y12" s="2"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="E13" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="B13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="T13" s="7"/>
       <c r="U13" s="3"/>
       <c r="V13" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W13" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
     <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="25" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="25"/>
       <c r="T14" s="7"/>
       <c r="V14" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W14" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>20</v>
-      </c>
       <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="O15" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="7"/>
+        <v>55</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="25"/>
       <c r="U15" s="3"/>
       <c r="V15" s="23"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="M16" s="3"/>
-      <c r="N16" s="4" t="s">
-        <v>60</v>
+      <c r="N16" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="O16" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="R16" s="29"/>
-      <c r="S16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="T16" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="R16" s="23"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>20</v>
-      </c>
+      <c r="N17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="R17" s="7"/>
+      <c r="S17" s="25"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="E18" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
+      <c r="E18" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="39"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="20" t="s">
-        <v>21</v>
+      <c r="N18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>55</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
       <c r="E19" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q19" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="R19" s="38"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="7"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="E20" s="32"/>
       <c r="F20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="N20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="39"/>
       <c r="S20" s="11" t="s">
-        <v>23</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="E21" s="33"/>
       <c r="F21" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="P21" s="3"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="24" t="s">
-        <v>40</v>
+      <c r="Q21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="U21" s="3"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>20</v>
+      <c r="A22" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E22" s="33"/>
       <c r="F22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="22"/>
-      <c r="R22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>23</v>
+      <c r="R22" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>21</v>
+      <c r="A23" s="9"/>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="E23" s="34"/>
       <c r="F23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="22"/>
-      <c r="R23" s="4" t="s">
+      <c r="R23" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S23" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="4" t="s">
+      <c r="S27" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="P25" s="3"/>
-      <c r="R25" s="24" t="s">
+      <c r="C30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="S30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="S25" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="Q26" s="3"/>
-      <c r="R26" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="T26" t="s">
+      <c r="T30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q31" s="3"/>
+      <c r="R31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S31" s="25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q32" s="3"/>
+      <c r="R32" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="S32" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="S27" s="25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S28" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="S33" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R34" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="S34" s="25" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="E18:G18"/>
+  <mergeCells count="26">
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="Q1:S1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="U2:V2"/>
     <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="U5:U11"/>
     <mergeCell ref="M5:M9"/>
     <mergeCell ref="Q5:Q9"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="I4:I10"/>
     <mergeCell ref="E4:E10"/>
     <mergeCell ref="E13:G13"/>
     <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="E2:F2"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Sammakorn\sammakorn_project_lifestyle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lifes\Desktop\New folder\sammakorn_project_lifestyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524EEAB-A614-4812-B117-8FA99AC1BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB3AF8-86CB-4778-92C3-79E48FB54720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22EDCF0B-C4D6-48EE-B7C5-3BF58B784309}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
   <si>
     <t>Email</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>resident_remove_datetime</t>
+  </si>
+  <si>
+    <t>admin_decline_remove_reason</t>
+  </si>
+  <si>
+    <t>admin_decline_remove_datetime</t>
   </si>
 </sst>
 </file>
@@ -826,7 +832,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1621,6 +1627,12 @@
       <c r="G23" s="13" t="s">
         <v>22</v>
       </c>
+      <c r="N23" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>55</v>
+      </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="11" t="s">
@@ -1632,6 +1644,12 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
+      <c r="N24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="4" t="s">
@@ -1768,12 +1786,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="U5:U11"/>
     <mergeCell ref="M5:M9"/>
     <mergeCell ref="Q5:Q9"/>
@@ -1788,12 +1806,12 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lifes\Desktop\New folder\sammakorn_project_lifestyle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lifes\Desktop\IT82\sammakorn_project_lifestyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCB3AF8-86CB-4778-92C3-79E48FB54720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF022E-67AB-49D4-85D9-9ECF897A3CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22EDCF0B-C4D6-48EE-B7C5-3BF58B784309}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{22EDCF0B-C4D6-48EE-B7C5-3BF58B784309}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="70">
   <si>
     <t>Email</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>admin_decline_remove_datetime</t>
+  </si>
+  <si>
+    <t>qr_gen_id</t>
   </si>
 </sst>
 </file>
@@ -831,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43346F73-D141-4A64-9006-ED34E6923F86}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1457,9 +1460,19 @@
       <c r="O16" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="23"/>
+      <c r="R16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="S16" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="V16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="W16" s="11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M17" s="3"/>
@@ -1786,12 +1799,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="U5:U11"/>
     <mergeCell ref="M5:M9"/>
     <mergeCell ref="Q5:Q9"/>
@@ -1806,12 +1819,12 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lifes\Desktop\IT82\sammakorn_project_lifestyle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\sammakorn_project_lifestyle\sammakorn_project_lifestyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DF022E-67AB-49D4-85D9-9ECF897A3CC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CC9CAB-0434-4D84-A2E9-278A541F8078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{22EDCF0B-C4D6-48EE-B7C5-3BF58B784309}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="76">
   <si>
     <t>Email</t>
   </si>
@@ -244,6 +244,24 @@
   </si>
   <si>
     <t>qr_gen_id</t>
+  </si>
+  <si>
+    <t>walkin -&gt; car | human</t>
+  </si>
+  <si>
+    <t>walk_id</t>
+  </si>
+  <si>
+    <t>goto_home_address</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>path_image</t>
   </si>
 </sst>
 </file>
@@ -834,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43346F73-D141-4A64-9006-ED34E6923F86}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1474,7 +1492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="M17" s="3"/>
       <c r="N17" s="23" t="s">
         <v>56</v>
@@ -1487,7 +1505,7 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="E18" s="37" t="s">
         <v>42</v>
       </c>
@@ -1503,7 +1521,7 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>40</v>
       </c>
@@ -1526,10 +1544,13 @@
       <c r="R19" s="38"/>
       <c r="S19" s="39"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U19" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>18</v>
       </c>
@@ -1559,10 +1580,17 @@
         <v>17</v>
       </c>
       <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U20" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
@@ -1595,9 +1623,15 @@
       <c r="S21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U21" s="3"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U21" s="31"/>
+      <c r="V21" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="W21" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -1622,10 +1656,15 @@
       <c r="S22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U22" s="31"/>
+      <c r="V22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="4" t="s">
         <v>10</v>
@@ -1654,8 +1693,15 @@
       <c r="S23" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U23" s="31"/>
+      <c r="V23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="N24" s="3" t="s">
         <v>68</v>
@@ -1671,8 +1717,15 @@
       <c r="S24" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U24" s="31"/>
+      <c r="V24" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="W24" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="P25" s="3"/>
@@ -1683,8 +1736,15 @@
       <c r="S25" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U25" s="31"/>
+      <c r="V25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="26" t="s">
         <v>34</v>
       </c>
@@ -1697,9 +1757,15 @@
       <c r="S26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U26" s="31"/>
+      <c r="V26" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="W26" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
         <v>18</v>
       </c>
@@ -1714,8 +1780,15 @@
       <c r="S27" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U27" s="31"/>
+      <c r="V27" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="W27" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1725,8 +1798,15 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U28" s="31"/>
+      <c r="V28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="W28" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="11" t="s">
         <v>7</v>
@@ -1743,8 +1823,15 @@
       <c r="T29" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U29" s="31"/>
+      <c r="V29" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="W29" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="4" t="s">
         <v>10</v>
@@ -1762,8 +1849,15 @@
       <c r="T30" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U30" s="31"/>
+      <c r="V30" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W30" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q31" s="3"/>
       <c r="R31" s="7" t="s">
         <v>52</v>
@@ -1771,8 +1865,15 @@
       <c r="S31" s="25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U31" s="31"/>
+      <c r="V31" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="W31" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q32" s="3"/>
       <c r="R32" s="7" t="s">
         <v>60</v>
@@ -1798,13 +1899,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="U2:V2"/>
-    <mergeCell ref="Q2:R2"/>
+  <mergeCells count="28">
+    <mergeCell ref="U21:U31"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="U5:U11"/>
     <mergeCell ref="M5:M9"/>
     <mergeCell ref="Q5:Q9"/>
@@ -1819,12 +1921,13 @@
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="Q19:S19"/>
     <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="Q2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\sammakorn_project_lifestyle\sammakorn_project_lifestyle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\sammakorn_project_lifestyle\fastapi-server\sammakorn_project_lifestyle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CC9CAB-0434-4D84-A2E9-278A541F8078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A8D5A0-F6FB-45F2-8F2F-D8EE77F2EAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{22EDCF0B-C4D6-48EE-B7C5-3BF58B784309}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22EDCF0B-C4D6-48EE-B7C5-3BF58B784309}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="vms-schemas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -268,11 +268,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -280,13 +280,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -463,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -494,15 +494,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,12 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,6 +519,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -852,111 +843,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43346F73-D141-4A64-9006-ED34E6923F86}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="116" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.296875" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" customWidth="1"/>
-    <col min="5" max="5" width="3.19921875" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="3.21875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="3" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.09765625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:25">
+      <c r="A1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="I1" s="31" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="M1" s="31" t="s">
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="M1" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="Q1" s="31" t="s">
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="U1" s="31" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="U1" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-    </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+    </row>
+    <row r="2" spans="1:25" s="3" customFormat="1">
+      <c r="A2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="31"/>
+      <c r="N2" s="28"/>
       <c r="O2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="31"/>
+      <c r="R2" s="28"/>
       <c r="S2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="V2" s="31"/>
+      <c r="V2" s="28"/>
       <c r="W2" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1003,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="35"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -1020,14 +1011,14 @@
       <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="28"/>
       <c r="J4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +1056,7 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="36"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
@@ -1073,21 +1064,21 @@
       <c r="C5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="28"/>
       <c r="F5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="28"/>
       <c r="J5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="32"/>
+      <c r="M5" s="29"/>
       <c r="N5" s="21" t="s">
         <v>33</v>
       </c>
@@ -1095,14 +1086,14 @@
         <v>20</v>
       </c>
       <c r="P5" s="7"/>
-      <c r="Q5" s="32"/>
+      <c r="Q5" s="29"/>
       <c r="R5" s="21" t="s">
         <v>33</v>
       </c>
       <c r="S5" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="32"/>
+      <c r="U5" s="29"/>
       <c r="V5" s="21" t="s">
         <v>33</v>
       </c>
@@ -1112,7 +1103,7 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="36"/>
       <c r="B6" s="14" t="s">
         <v>9</v>
@@ -1120,21 +1111,21 @@
       <c r="C6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="28"/>
       <c r="J6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M6" s="33"/>
+      <c r="M6" s="30"/>
       <c r="N6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1142,14 +1133,14 @@
         <v>20</v>
       </c>
       <c r="P6" s="2"/>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="30"/>
       <c r="R6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="S6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U6" s="33"/>
+      <c r="U6" s="30"/>
       <c r="V6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1159,7 +1150,7 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="36"/>
       <c r="B7" s="4" t="s">
         <v>1</v>
@@ -1167,21 +1158,21 @@
       <c r="C7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="28"/>
       <c r="J7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="33"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1189,14 +1180,14 @@
         <v>20</v>
       </c>
       <c r="P7" s="2"/>
-      <c r="Q7" s="33"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="33"/>
+      <c r="U7" s="30"/>
       <c r="V7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1206,7 +1197,7 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="36"/>
       <c r="B8" s="4" t="s">
         <v>0</v>
@@ -1214,21 +1205,21 @@
       <c r="C8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="28"/>
       <c r="J8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="30"/>
       <c r="N8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1236,14 +1227,14 @@
         <v>20</v>
       </c>
       <c r="P8" s="2"/>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="30"/>
       <c r="R8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="S8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="33"/>
+      <c r="U8" s="30"/>
       <c r="V8" s="24" t="s">
         <v>7</v>
       </c>
@@ -1253,7 +1244,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="36"/>
       <c r="B9" s="15" t="s">
         <v>41</v>
@@ -1261,21 +1252,21 @@
       <c r="C9" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="28"/>
       <c r="F9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="28"/>
       <c r="J9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="34"/>
+      <c r="M9" s="31"/>
       <c r="N9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1283,14 +1274,14 @@
         <v>22</v>
       </c>
       <c r="P9" s="2"/>
-      <c r="Q9" s="34"/>
+      <c r="Q9" s="31"/>
       <c r="R9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U9" s="33"/>
+      <c r="U9" s="30"/>
       <c r="V9" s="11" t="s">
         <v>38</v>
       </c>
@@ -1300,7 +1291,7 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="36"/>
       <c r="B10" s="4" t="s">
         <v>11</v>
@@ -1308,14 +1299,14 @@
       <c r="C10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="28"/>
       <c r="J10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1326,7 +1317,7 @@
       <c r="N10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="U10" s="33"/>
+      <c r="U10" s="30"/>
       <c r="V10" s="24" t="s">
         <v>24</v>
       </c>
@@ -1336,7 +1327,7 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25">
       <c r="A11" s="36"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -1366,7 +1357,7 @@
       <c r="S11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U11" s="34"/>
+      <c r="U11" s="31"/>
       <c r="V11" s="4" t="s">
         <v>10</v>
       </c>
@@ -1376,7 +1367,7 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25">
       <c r="B12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="6" t="s">
@@ -1397,18 +1388,18 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25">
       <c r="B13" s="23" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="T13" s="7"/>
@@ -1422,22 +1413,21 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" s="3" customFormat="1">
       <c r="B14" s="23" t="s">
         <v>59</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="11" t="s">
         <v>17</v>
       </c>
       <c r="R14" s="7"/>
-      <c r="S14" s="25"/>
       <c r="T14" s="7"/>
       <c r="V14" s="6" t="s">
         <v>50</v>
@@ -1448,7 +1438,7 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25">
       <c r="E15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1470,7 +1460,7 @@
       <c r="U15" s="3"/>
       <c r="V15" s="23"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25">
       <c r="M16" s="3"/>
       <c r="N16" s="3" t="s">
         <v>62</v>
@@ -1492,7 +1482,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23">
       <c r="M17" s="3"/>
       <c r="N17" s="23" t="s">
         <v>56</v>
@@ -1505,12 +1495,12 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E18" s="37" t="s">
+    <row r="18" spans="1:23">
+      <c r="E18" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
       <c r="M18" s="3"/>
       <c r="N18" s="7" t="s">
         <v>61</v>
@@ -1521,12 +1511,12 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:23">
+      <c r="A19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="E19" s="17" t="s">
         <v>4</v>
       </c>
@@ -1538,27 +1528,27 @@
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="Q19" s="37" t="s">
+      <c r="Q19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="R19" s="38"/>
-      <c r="S19" s="39"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="34"/>
       <c r="T19" s="7"/>
-      <c r="U19" s="31" t="s">
+      <c r="U19" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="32"/>
+      <c r="E20" s="29"/>
       <c r="F20" s="4" t="s">
         <v>35</v>
       </c>
@@ -1572,10 +1562,10 @@
       <c r="O20" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="Q20" s="37" t="s">
+      <c r="Q20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="39"/>
+      <c r="R20" s="34"/>
       <c r="S20" s="11" t="s">
         <v>17</v>
       </c>
@@ -1590,7 +1580,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23">
       <c r="A21" s="9" t="s">
         <v>44</v>
       </c>
@@ -1600,7 +1590,7 @@
       <c r="C21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="11" t="s">
         <v>37</v>
       </c>
@@ -1623,7 +1613,7 @@
       <c r="S21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U21" s="31"/>
+      <c r="U21" s="28"/>
       <c r="V21" s="14" t="s">
         <v>2</v>
       </c>
@@ -1631,7 +1621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23">
       <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
@@ -1641,7 +1631,7 @@
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="30"/>
       <c r="F22" s="4" t="s">
         <v>6</v>
       </c>
@@ -1656,7 +1646,7 @@
       <c r="S22" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="U22" s="31"/>
+      <c r="U22" s="28"/>
       <c r="V22" s="14" t="s">
         <v>3</v>
       </c>
@@ -1664,7 +1654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23">
       <c r="A23" s="9"/>
       <c r="B23" s="4" t="s">
         <v>10</v>
@@ -1672,7 +1662,7 @@
       <c r="C23" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="34"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="4" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1683,7 @@
       <c r="S23" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U23" s="31"/>
+      <c r="U23" s="28"/>
       <c r="V23" s="14" t="s">
         <v>38</v>
       </c>
@@ -1701,7 +1691,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23">
       <c r="A24" s="10"/>
       <c r="N24" s="3" t="s">
         <v>68</v>
@@ -1717,7 +1707,7 @@
       <c r="S24" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U24" s="31"/>
+      <c r="U24" s="28"/>
       <c r="V24" s="14" t="s">
         <v>73</v>
       </c>
@@ -1725,7 +1715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23">
       <c r="A25" s="10"/>
       <c r="B25" s="3"/>
       <c r="P25" s="3"/>
@@ -1736,7 +1726,7 @@
       <c r="S25" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U25" s="31"/>
+      <c r="U25" s="28"/>
       <c r="V25" s="14" t="s">
         <v>74</v>
       </c>
@@ -1744,12 +1734,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+    <row r="26" spans="1:23">
+      <c r="A26" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="34"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="4" t="s">
         <v>62</v>
@@ -1757,7 +1747,7 @@
       <c r="S26" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U26" s="31"/>
+      <c r="U26" s="28"/>
       <c r="V26" s="14" t="s">
         <v>7</v>
       </c>
@@ -1765,11 +1755,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:23">
+      <c r="A27" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="34"/>
       <c r="C27" s="11" t="s">
         <v>17</v>
       </c>
@@ -1780,7 +1770,7 @@
       <c r="S27" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U27" s="31"/>
+      <c r="U27" s="28"/>
       <c r="V27" s="14" t="s">
         <v>72</v>
       </c>
@@ -1788,7 +1778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23">
       <c r="A28" s="12" t="s">
         <v>44</v>
       </c>
@@ -1798,7 +1788,7 @@
       <c r="C28" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="U28" s="31"/>
+      <c r="U28" s="28"/>
       <c r="V28" s="14" t="s">
         <v>13</v>
       </c>
@@ -1806,8 +1796,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+    <row r="29" spans="1:23">
+      <c r="A29" s="26"/>
       <c r="B29" s="11" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1813,7 @@
       <c r="T29" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="U29" s="31"/>
+      <c r="U29" s="28"/>
       <c r="V29" s="14" t="s">
         <v>14</v>
       </c>
@@ -1831,8 +1821,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:23">
+      <c r="A30" s="27"/>
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
@@ -1849,7 +1839,7 @@
       <c r="T30" t="s">
         <v>54</v>
       </c>
-      <c r="U30" s="31"/>
+      <c r="U30" s="28"/>
       <c r="V30" s="14" t="s">
         <v>75</v>
       </c>
@@ -1857,7 +1847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23">
       <c r="Q31" s="3"/>
       <c r="R31" s="7" t="s">
         <v>52</v>
@@ -1865,7 +1855,7 @@
       <c r="S31" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="U31" s="31"/>
+      <c r="U31" s="28"/>
       <c r="V31" s="14" t="s">
         <v>69</v>
       </c>
@@ -1873,7 +1863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23">
       <c r="Q32" s="3"/>
       <c r="R32" s="7" t="s">
         <v>60</v>
@@ -1882,7 +1872,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:19">
       <c r="R33" s="3" t="s">
         <v>56</v>
       </c>
@@ -1890,7 +1880,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:19">
       <c r="R34" s="7" t="s">
         <v>61</v>
       </c>
@@ -1899,7 +1889,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="U21:U31"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
